--- a/2-Empirical-Evidence/raw_data/New_Hampshire.xlsx
+++ b/2-Empirical-Evidence/raw_data/New_Hampshire.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN330010000000003</t>
@@ -658,10 +674,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>5.7</v>
@@ -756,10 +784,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>1516.0</v>
@@ -854,10 +892,20 @@
       <c r="AF6" t="n" s="8">
         <v>2157.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>1108.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>706.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>663.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>25219.0</v>
@@ -952,10 +1000,20 @@
       <c r="AF7" t="n" s="8">
         <v>28824.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>29800.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>30170.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>30315.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>26735.0</v>
@@ -1050,10 +1108,20 @@
       <c r="AF8" t="n" s="8">
         <v>30981.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>30908.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>30876.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>30978.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>4.6</v>
@@ -1148,10 +1216,20 @@
       <c r="AF9" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>902.0</v>
@@ -1246,10 +1324,20 @@
       <c r="AF10" t="n" s="8">
         <v>1769.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>856.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>548.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>522.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>18522.0</v>
@@ -1344,10 +1432,20 @@
       <c r="AF11" t="n" s="8">
         <v>21263.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>22247.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>22674.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>22502.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>19424.0</v>
@@ -1442,10 +1540,20 @@
       <c r="AF12" t="n" s="8">
         <v>23032.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>23103.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>23222.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>23024.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>4.1</v>
@@ -1540,10 +1648,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1587.0</v>
@@ -1638,10 +1756,20 @@
       <c r="AF14" t="n" s="8">
         <v>2448.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>1467.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>957.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>902.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>37033.0</v>
@@ -1736,10 +1864,20 @@
       <c r="AF15" t="n" s="8">
         <v>37222.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>37847.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>38171.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>37915.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>38620.0</v>
@@ -1834,10 +1972,20 @@
       <c r="AF16" t="n" s="8">
         <v>39670.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>39314.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>39128.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>38817.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>6.1</v>
@@ -1932,10 +2080,20 @@
       <c r="AF17" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>1052.0</v>
@@ -2030,10 +2188,20 @@
       <c r="AF18" t="n" s="8">
         <v>1130.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>611.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>434.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>376.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>16281.0</v>
@@ -2128,10 +2296,20 @@
       <c r="AF19" t="n" s="8">
         <v>13125.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>13669.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>13815.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>13839.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>17333.0</v>
@@ -2226,10 +2404,20 @@
       <c r="AF20" t="n" s="8">
         <v>14255.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>14280.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>14249.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>14215.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.1</v>
@@ -2324,10 +2512,20 @@
       <c r="AF21" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>2040.0</v>
@@ -2422,10 +2620,20 @@
       <c r="AF22" t="n" s="8">
         <v>2812.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>1560.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>1020.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>938.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>38268.0</v>
@@ -2520,10 +2728,20 @@
       <c r="AF23" t="n" s="8">
         <v>45149.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>46672.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>47531.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>47365.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>40308.0</v>
@@ -2618,10 +2836,20 @@
       <c r="AF24" t="n" s="8">
         <v>47961.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>48232.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>48551.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>48303.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.0</v>
@@ -2716,10 +2944,20 @@
       <c r="AF25" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>10053.0</v>
@@ -2814,10 +3052,20 @@
       <c r="AF26" t="n" s="8">
         <v>16782.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>8258.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>5584.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>5511.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>189038.0</v>
@@ -2912,10 +3160,20 @@
       <c r="AF27" t="n" s="8">
         <v>223541.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>227995.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>233468.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>233610.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>199091.0</v>
@@ -3010,10 +3268,20 @@
       <c r="AF28" t="n" s="8">
         <v>240323.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>236253.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>239052.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>239121.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>4.8</v>
@@ -3108,10 +3376,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>2930.0</v>
@@ -3206,10 +3484,20 @@
       <c r="AF30" t="n" s="8">
         <v>4803.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>2533.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>1693.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>1566.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>57635.0</v>
@@ -3304,10 +3592,20 @@
       <c r="AF31" t="n" s="8">
         <v>77741.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>78601.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>80383.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>80709.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>60565.0</v>
@@ -3402,10 +3700,20 @@
       <c r="AF32" t="n" s="8">
         <v>82544.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>81134.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>82076.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>82275.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>5.8</v>
@@ -3500,10 +3808,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>8247.0</v>
@@ -3598,10 +3916,20 @@
       <c r="AF34" t="n" s="8">
         <v>13130.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>6181.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>4388.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>4319.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>134441.0</v>
@@ -3696,10 +4024,20 @@
       <c r="AF35" t="n" s="8">
         <v>173201.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>178235.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>182773.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>183134.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>142688.0</v>
@@ -3794,10 +4132,20 @@
       <c r="AF36" t="n" s="8">
         <v>186331.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>184416.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>187161.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>187453.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>5.5</v>
@@ -3892,10 +4240,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>3159.0</v>
@@ -3990,10 +4348,20 @@
       <c r="AF38" t="n" s="8">
         <v>4607.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>2321.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>1542.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>1492.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>54238.0</v>
@@ -4088,10 +4456,20 @@
       <c r="AF39" t="n" s="8">
         <v>68752.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>70386.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>71801.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>71171.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>57397.0</v>
@@ -4186,10 +4564,20 @@
       <c r="AF40" t="n" s="8">
         <v>73359.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>72707.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>73343.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>72663.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>5.9</v>
@@ -4284,10 +4672,20 @@
       <c r="AF41" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>1219.0</v>
@@ -4382,10 +4780,20 @@
       <c r="AF42" t="n" s="8">
         <v>1247.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>735.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>485.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>428.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>19442.0</v>
@@ -4480,10 +4888,20 @@
       <c r="AF43" t="n" s="8">
         <v>21720.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>22124.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>22190.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>22328.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>20661.0</v>
@@ -4578,6 +4996,16 @@
       <c r="AF44" t="n" s="8">
         <v>22967.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>22859.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>22675.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>22756.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4588,7 +5016,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:43:38 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:54:04 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
